--- a/checks.xlsx
+++ b/checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCEADA-EDEF-034F-A965-310225D94C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6B0D3-8657-E84D-BABA-B18A5C29A800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{E66764DE-DCBB-FB47-B659-488135F8AC96}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
   <si>
     <t>anthonia</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>aedjhwhjw</t>
+  </si>
+  <si>
+    <t>mighty</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>west</t>
   </si>
 </sst>
 </file>
@@ -429,7 +450,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,10 +477,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -470,10 +491,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,10 +505,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,10 +519,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,10 +561,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -582,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,10 +617,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,10 +631,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -638,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,10 +673,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
